--- a/www/ig/fhir/tddui/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/www/ig/fhir/tddui/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4142" uniqueCount="576">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:37:15+00:00</t>
+    <t>2026-02-06T14:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -586,7 +586,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -674,7 +674,7 @@
     <t>Task.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -699,7 +699,7 @@
     <t>Task.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition)
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -733,7 +733,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -770,7 +770,7 @@
     <t>Task.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Task)
+    <t xml:space="preserve">Reference(Task|4.0.1)
 </t>
   </si>
   <si>
@@ -1164,7 +1164,7 @@
     <t>Task.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Device|4.0.1|Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
     <t>The type(s) of task performers allowed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.role, Request.performerType</t>
@@ -1248,7 +1248,7 @@
     <t>Task.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1315,7 +1315,7 @@
     <t>Task.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1360,7 +1360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -1461,7 +1461,7 @@
     <t>Task.restriction.recipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Group|Organization)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Group|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1525,7 +1525,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Comparison source", "Applicable consent", "Concomitent Medications", etc.</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-task-input-transport</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1564,7 +1564,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="typeMotorisation"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1599,7 +1599,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="adresseDepart"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1635,7 +1635,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="adresseDestination"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1667,7 +1667,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="budgetPrevisionnel"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1703,7 +1703,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="budgetReel"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1735,7 +1735,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="distance"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1771,7 +1771,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="dureeTheorique"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2143,15 +2143,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2162,27 +2162,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="143.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="55.72265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="47.7734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="94.296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9387,13 +9387,11 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y62" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y62" s="2"/>
+      <c r="Z62" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -10091,13 +10089,11 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y68" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y68" s="2"/>
+      <c r="Z68" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -10793,13 +10789,11 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y74" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y74" s="2"/>
+      <c r="Z74" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -11497,13 +11491,11 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y80" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y80" s="2"/>
+      <c r="Z80" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -12201,13 +12193,11 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y86" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y86" s="2"/>
+      <c r="Z86" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>78</v>
@@ -12905,13 +12895,11 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y92" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y92" s="2"/>
+      <c r="Z92" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -13609,13 +13597,11 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y98" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y98" s="2"/>
+      <c r="Z98" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>78</v>
@@ -14313,13 +14299,11 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y104" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y104" s="2"/>
+      <c r="Z104" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>78</v>
